--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020221.xlsx_with_dialog_acts.xlsx
@@ -715,12 +715,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1199,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5089,12 +5089,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5489,12 +5489,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6409,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6693,12 +6693,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7013,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7133,12 +7133,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7173,12 +7173,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7893,12 +7893,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7973,12 +7973,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8293,12 +8293,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8973,12 +8973,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10461,12 +10461,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10541,12 +10541,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11079,12 +11079,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11193,12 +11193,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11611,12 +11611,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11763,12 +11763,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11915,12 +11915,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11991,12 +11991,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12143,12 +12143,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12635,12 +12635,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12749,12 +12749,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14007,12 +14007,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14235,12 +14235,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14273,12 +14273,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14349,12 +14349,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14691,12 +14691,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15033,12 +15033,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15299,12 +15299,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15375,12 +15375,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15679,12 +15679,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16325,12 +16325,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16819,12 +16819,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16857,12 +16857,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17237,12 +17237,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17275,12 +17275,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17997,12 +17997,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18109,12 +18109,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18375,12 +18375,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18869,12 +18869,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18907,12 +18907,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19249,12 +19249,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19553,12 +19553,12 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19629,12 +19629,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
